--- a/biology/Histoire de la zoologie et de la botanique/William_Keith_Brooks/William_Keith_Brooks.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Keith_Brooks/William_Keith_Brooks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Keith Brooks est un zoologiste américain, né le 25 mars 1848 à Cleveland, Ohio et mort le 12 novembre 1908.
 Il fait ses études au Williams College et à l’université Harvard où il reçoit son doctorat en 1875. Il travaille à l’université Johns-Hopkins à partir de 1876. Il est l’un des plus éminents embryologistes de son pays.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1882 : Hand-Book of Invertebrate Zoölogy
 1882 : Heredity
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 21 mars 2007).</t>
         </is>
